--- a/data/imputed/Congressional Election Results by State (2008 - 111th) IMPUTED.xlsx
+++ b/data/imputed/Congressional Election Results by State (2008 - 111th) IMPUTED.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11222"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F219E61F-360D-4C48-A47C-78FD1094896B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146DDCE-5A09-9C4D-9A09-DC85F3490CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="24280" windowHeight="15540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="24280" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="3" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="4" r:id="rId2"/>
     <sheet name="Uncontested by State PIVOT" sheetId="5" r:id="rId3"/>
-    <sheet name="Assumptions" sheetId="7" r:id="rId4"/>
-    <sheet name="EXPORT" sheetId="8" r:id="rId5"/>
+    <sheet name="EXPORT" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$A$2:$X$52</definedName>
@@ -25,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -71,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="190">
   <si>
     <t>Total</t>
   </si>
@@ -611,9 +610,6 @@
   </si>
   <si>
     <t>SEAT_%</t>
-  </si>
-  <si>
-    <t>Super small # =</t>
   </si>
   <si>
     <t>STATE</t>
@@ -3323,7 +3319,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable8" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:F54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="21">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -8550,6 +8546,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:X52" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15346,6 +15343,7 @@
       <c r="M96" s="77"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:J87" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16407,38 +16405,12 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="21">
-        <f>(1/100)/1000000</f>
-        <v>1E-8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28376AE-10A5-364C-8929-214C39DE583E}">
   <dimension ref="A1:L51"/>
   <sheetViews>
@@ -16453,34 +16425,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
         <v>181</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>182</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>184</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>185</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>186</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>187</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>188</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>189</v>
-      </c>
-      <c r="J1" t="s">
-        <v>190</v>
       </c>
       <c r="K1" s="118" t="s">
         <v>178</v>
@@ -18390,6 +18362,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/imputed/Congressional Election Results by State (2008 - 111th) IMPUTED.xlsx
+++ b/data/imputed/Congressional Election Results by State (2008 - 111th) IMPUTED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/ushouse/data/imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9146DDCE-5A09-9C4D-9A09-DC85F3490CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5BAF0D-6B7B-D249-9C5D-9B5DA60D4ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="24280" windowHeight="15540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="24280" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="3" r:id="rId1"/>
@@ -50,6 +50,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
+    <author>tc={17B142FD-6AD7-4640-ADA2-C7419131B706}</author>
   </authors>
   <commentList>
     <comment ref="J6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -57,12 +58,20 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">All four races were uncontested, so used votes for President as a proxy.
 </t>
         </r>
+      </text>
+    </comment>
+    <comment ref="J47" authorId="1" shapeId="0" xr:uid="{17B142FD-6AD7-4640-ADA2-C7419131B706}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    One uncontested district. Used Presidential results as a proxy.</t>
       </text>
     </comment>
   </commentList>
@@ -650,7 +659,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -727,8 +736,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1031,6 +1046,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Alec Ramsay" id="{7FFB3F45-CE3F-4048-B194-C9B6DCD21E33}" userId="b12d4a08514a1462" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4126,15 +4147,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J47" dT="2021-12-28T14:31:32.24" personId="{7FFB3F45-CE3F-4048-B194-C9B6DCD21E33}" id="{17B142FD-6AD7-4640-ADA2-C7419131B706}">
+    <text>One uncontested district. Used Presidential results as a proxy.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X52" sqref="A1:X52"/>
+      <selection pane="bottomRight" activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7958,9 +7987,8 @@
       <c r="I47" s="64">
         <v>1</v>
       </c>
-      <c r="J47" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+      <c r="J47" s="93">
+        <v>325046</v>
       </c>
       <c r="K47" s="24">
         <v>106373</v>
@@ -14671,7 +14699,7 @@
       </c>
       <c r="M80" s="77">
         <f>VLOOKUP(B80,'Election Results by State'!$B$3:$J$52,9,FALSE)</f>
-        <v>0</v>
+        <v>325046</v>
       </c>
       <c r="N80" s="78">
         <f t="shared" si="17"/>
@@ -16414,7 +16442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28376AE-10A5-364C-8929-214C39DE583E}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
